--- a/edt.xlsx
+++ b/edt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="122">
   <si>
     <t>Jour</t>
   </si>
@@ -406,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,12 +458,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -612,8 +606,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -622,8 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -909,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>119</v>
@@ -1826,7 +1819,7 @@
       <c r="G31" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="45" t="s">
         <v>13</v>
       </c>
       <c r="I31" s="16"/>
@@ -1892,7 +1885,7 @@
       <c r="E33" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="46" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="21" t="s">
@@ -2108,13 +2101,13 @@
         <v>37</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>119</v>
@@ -2474,9 +2467,6 @@
       <c r="G54" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H54" t="s">
-        <v>16</v>
-      </c>
       <c r="I54" s="6" t="s">
         <v>60</v>
       </c>
@@ -2505,39 +2495,6 @@
       </c>
       <c r="B55" s="4">
         <v>44505</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L55" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="M55" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -2589,23 +2546,39 @@
       <c r="B58" s="4">
         <v>44508</v>
       </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" t="s">
-        <v>16</v>
-      </c>
-      <c r="N58" s="45"/>
-      <c r="O58" s="3"/>
+      <c r="D58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M58" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -4381,8 +4354,8 @@
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
-      <c r="L119" s="48"/>
-      <c r="M119" s="48"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="47"/>
       <c r="N119" s="24"/>
       <c r="O119" s="3"/>
     </row>

--- a/edt.xlsx
+++ b/edt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="120">
   <si>
     <t>Jour</t>
   </si>
@@ -309,21 +309,12 @@
     <t>salle</t>
   </si>
   <si>
-    <t>Suivi Proj</t>
-  </si>
-  <si>
     <t>GS11 G1</t>
   </si>
   <si>
     <t>GS11 G2</t>
   </si>
   <si>
-    <t xml:space="preserve">Sécurité multi-cloud I </t>
-  </si>
-  <si>
-    <t>Sécurité multi-cloud II</t>
-  </si>
-  <si>
     <t xml:space="preserve"> UTT</t>
   </si>
   <si>
@@ -391,6 +382,9 @@
   </si>
   <si>
     <t>B105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sécurité multi-cloud </t>
   </si>
 </sst>
 </file>
@@ -902,28 +896,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -991,7 +985,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1030,13 +1024,13 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1069,10 +1063,10 @@
       </c>
       <c r="N4" s="24"/>
       <c r="O4" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1107,13 +1101,13 @@
         <v>14</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1154,7 +1148,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1169,7 @@
       <c r="N7" s="24"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1190,7 @@
       <c r="N8" s="24"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1200,7 @@
       <c r="N9" s="24"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1245,13 +1239,13 @@
         <v>14</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1275,10 +1269,10 @@
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1310,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1369,7 +1363,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1390,7 +1384,7 @@
       <c r="N15" s="24"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1400,7 +1394,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1439,13 +1433,13 @@
         <v>14</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1473,10 +1467,10 @@
       </c>
       <c r="N18" s="24"/>
       <c r="O18" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1502,22 +1496,22 @@
         <v>20</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1543,7 +1537,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>16</v>
@@ -1555,7 +1549,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
@@ -1576,7 +1570,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
@@ -1597,7 +1591,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1601,7 @@
       <c r="N23" s="24"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -1632,7 +1626,7 @@
       <c r="N24" s="24"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1660,10 +1654,10 @@
       </c>
       <c r="N25" s="24"/>
       <c r="O25" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1687,22 +1681,22 @@
         <v>20</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1737,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
@@ -1764,7 +1758,7 @@
       <c r="N28" s="24"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
@@ -1785,7 +1779,7 @@
       <c r="N29" s="24"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1797,7 +1791,7 @@
       <c r="N30" s="24"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -1836,13 +1830,13 @@
         <v>14</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1856,7 +1850,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>35</v>
@@ -1869,10 +1863,10 @@
       </c>
       <c r="N32" s="24"/>
       <c r="O32" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -1895,22 +1889,22 @@
         <v>35</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -1920,9 +1914,6 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="G34" s="7" t="s">
         <v>22</v>
       </c>
@@ -1936,7 +1927,7 @@
         <v>20</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M34" s="25" t="s">
         <v>14</v>
@@ -1948,7 +1939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>24</v>
       </c>
@@ -1969,7 +1960,7 @@
       <c r="N35" s="24"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>25</v>
       </c>
@@ -1990,7 +1981,7 @@
       <c r="N36" s="24"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +1991,7 @@
       <c r="N37" s="24"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
@@ -2039,13 +2030,13 @@
         <v>14</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
@@ -2072,10 +2063,10 @@
       </c>
       <c r="N39" s="24"/>
       <c r="O39" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -2101,7 +2092,7 @@
         <v>37</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>14</v>
@@ -2110,13 +2101,13 @@
         <v>14</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -2145,10 +2136,10 @@
         <v>45</v>
       </c>
       <c r="L41" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M41" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N41" s="30" t="s">
         <v>92</v>
@@ -2157,7 +2148,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -2178,7 +2169,7 @@
       <c r="N42" s="24"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>25</v>
       </c>
@@ -2199,7 +2190,7 @@
       <c r="N43" s="24"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2211,7 @@
       <c r="N44" s="24"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2241,7 +2232,7 @@
       <c r="N45" s="24"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -2262,7 +2253,7 @@
       <c r="N46" s="24"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -2283,7 +2274,7 @@
       <c r="N47" s="24"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -2304,7 +2295,7 @@
       <c r="N48" s="24"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>24</v>
       </c>
@@ -2325,7 +2316,7 @@
       <c r="N49" s="24"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>25</v>
       </c>
@@ -2346,7 +2337,7 @@
       <c r="N50" s="24"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -2373,7 +2364,7 @@
       <c r="N51" s="24"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2412,13 +2403,13 @@
         <v>14</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -2448,10 +2439,10 @@
       </c>
       <c r="N53" s="24"/>
       <c r="O53" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -2465,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>60</v>
@@ -2474,7 +2465,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>14</v>
@@ -2483,13 +2474,13 @@
         <v>14</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2488,7 @@
         <v>44505</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>24</v>
       </c>
@@ -2518,7 +2509,7 @@
       <c r="N56" s="24"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>25</v>
       </c>
@@ -2539,7 +2530,7 @@
       <c r="N57" s="24"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2568,7 +2559,7 @@
         <v>42</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M58" s="25" t="s">
         <v>16</v>
@@ -2580,7 +2571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2619,13 +2610,13 @@
         <v>14</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
@@ -2655,10 +2646,10 @@
       </c>
       <c r="N60" s="24"/>
       <c r="O60" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -2691,7 +2682,7 @@
       <c r="N61" s="24"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
@@ -2723,7 +2714,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>24</v>
       </c>
@@ -2744,7 +2735,7 @@
       <c r="N63" s="24"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>25</v>
       </c>
@@ -2765,7 +2756,7 @@
       <c r="N64" s="24"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
@@ -2773,29 +2764,10 @@
         <v>44515</v>
       </c>
       <c r="D65" s="24"/>
-      <c r="G65" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L65" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="40" t="s">
-        <v>87</v>
-      </c>
       <c r="N65" s="24"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2834,13 +2806,13 @@
         <v>14</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +2820,7 @@
         <v>44517</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="22" t="s">
@@ -2863,7 +2835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -2880,28 +2852,28 @@
         <v>12</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>21</v>
       </c>
@@ -2940,7 +2912,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>24</v>
       </c>
@@ -2967,7 +2939,7 @@
       <c r="N70" s="24"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>25</v>
       </c>
@@ -2988,7 +2960,7 @@
       <c r="N71" s="24"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2998,29 +2970,14 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="J72" s="3"/>
-      <c r="K72" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="40" t="s">
-        <v>87</v>
+      <c r="L72" t="s">
+        <v>16</v>
       </c>
       <c r="N72" s="24"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>11</v>
       </c>
@@ -3059,13 +3016,13 @@
         <v>14</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
@@ -3075,7 +3032,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="22" t="s">
@@ -3090,7 +3047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3061,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I75" s="23" t="s">
         <v>54</v>
@@ -3113,7 +3070,7 @@
         <v>20</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>14</v>
@@ -3122,13 +3079,13 @@
         <v>14</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>21</v>
       </c>
@@ -3157,10 +3114,10 @@
         <v>69</v>
       </c>
       <c r="L76" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M76" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N76" s="14" t="s">
         <v>92</v>
@@ -3169,7 +3126,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>24</v>
       </c>
@@ -3190,7 +3147,7 @@
       <c r="N77" s="24"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>25</v>
       </c>
@@ -3211,17 +3168,45 @@
       <c r="N78" s="24"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="4">
         <v>44529</v>
       </c>
+      <c r="C79" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L79" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="N79" s="24"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>11</v>
       </c>
@@ -3260,13 +3245,13 @@
         <v>14</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>15</v>
       </c>
@@ -3296,10 +3281,10 @@
       </c>
       <c r="N81" s="24"/>
       <c r="O81" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -3322,25 +3307,25 @@
         <v>20</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S82" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>21</v>
       </c>
@@ -3369,7 +3354,7 @@
         <v>42</v>
       </c>
       <c r="L83" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M83" s="25" t="s">
         <v>16</v>
@@ -3381,7 +3366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>24</v>
       </c>
@@ -3405,7 +3390,7 @@
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>25</v>
       </c>
@@ -3429,7 +3414,7 @@
       <c r="Q85" s="18"/>
       <c r="R85" s="18"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>10</v>
       </c>
@@ -3445,32 +3430,13 @@
       <c r="F86" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L86" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="M86" s="36"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="18"/>
       <c r="Q86" s="18"/>
       <c r="R86" s="18"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>11</v>
       </c>
@@ -3509,16 +3475,16 @@
         <v>14</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P87" s="18"/>
       <c r="Q87" s="18"/>
       <c r="R87" s="18"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
@@ -3544,17 +3510,17 @@
         <v>16</v>
       </c>
       <c r="M88" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N88" s="24"/>
       <c r="O88" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P88" s="18"/>
       <c r="Q88" s="18"/>
       <c r="R88" s="18"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
@@ -3577,25 +3543,25 @@
         <v>20</v>
       </c>
       <c r="K89" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="O89" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M89" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N89" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="P89" s="18"/>
       <c r="Q89" s="18"/>
       <c r="R89" s="18"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
@@ -3642,7 +3608,7 @@
       <c r="Q90" s="18"/>
       <c r="R90" s="18"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>24</v>
       </c>
@@ -3666,7 +3632,7 @@
       <c r="Q91" s="18"/>
       <c r="R91" s="18"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>25</v>
       </c>
@@ -3687,7 +3653,7 @@
       <c r="N92" s="24"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
@@ -3697,7 +3663,7 @@
       <c r="N93" s="24"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>11</v>
       </c>
@@ -3736,13 +3702,13 @@
         <v>14</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>15</v>
       </c>
@@ -3759,7 +3725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>17</v>
       </c>
@@ -3767,10 +3733,10 @@
         <v>44546</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -3782,10 +3748,10 @@
         <v>16</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>21</v>
       </c>
@@ -3823,7 +3789,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>24</v>
       </c>
@@ -3844,7 +3810,7 @@
       <c r="N98" s="24"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>25</v>
       </c>
@@ -3865,7 +3831,7 @@
       <c r="N99" s="24"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>10</v>
       </c>
@@ -3886,7 +3852,7 @@
       <c r="N100" s="24"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>11</v>
       </c>
@@ -3907,7 +3873,7 @@
       <c r="N101" s="24"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
         <v>15</v>
       </c>
@@ -3928,7 +3894,7 @@
       <c r="N102" s="24"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>17</v>
       </c>
@@ -3949,7 +3915,7 @@
       <c r="N103" s="24"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>21</v>
       </c>
@@ -3984,7 +3950,7 @@
       <c r="N104" s="24"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>24</v>
       </c>
@@ -4005,7 +3971,7 @@
       <c r="N105" s="24"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>25</v>
       </c>
@@ -4026,7 +3992,7 @@
       <c r="N106" s="24"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>10</v>
       </c>
@@ -4047,7 +4013,7 @@
       <c r="N107" s="24"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
         <v>11</v>
       </c>
@@ -4068,7 +4034,7 @@
       <c r="N108" s="24"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
         <v>15</v>
       </c>
@@ -4089,7 +4055,7 @@
       <c r="N109" s="24"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
         <v>17</v>
       </c>
@@ -4110,7 +4076,7 @@
       <c r="N110" s="24"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
         <v>21</v>
       </c>
@@ -4131,7 +4097,7 @@
       <c r="N111" s="24"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>24</v>
       </c>
@@ -4152,7 +4118,7 @@
       <c r="N112" s="24"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>25</v>
       </c>
@@ -4173,7 +4139,7 @@
       <c r="N113" s="24"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="24" t="s">
         <v>10</v>
       </c>
@@ -4194,7 +4160,7 @@
       <c r="N114" s="24"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="24" t="s">
         <v>11</v>
       </c>
@@ -4212,11 +4178,11 @@
         <v>12</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L115" s="8" t="s">
         <v>59</v>
@@ -4227,7 +4193,7 @@
       <c r="N115" s="24"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="24" t="s">
         <v>15</v>
       </c>
@@ -4264,7 +4230,7 @@
       <c r="N116" s="24"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="24" t="s">
         <v>17</v>
       </c>
@@ -4301,7 +4267,7 @@
       <c r="N117" s="24"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="24" t="s">
         <v>21</v>
       </c>
@@ -4338,7 +4304,7 @@
       <c r="N118" s="24"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>24</v>
       </c>
@@ -4359,7 +4325,7 @@
       <c r="N119" s="24"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>25</v>
       </c>
@@ -4380,7 +4346,7 @@
       <c r="N120" s="24"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>10</v>
       </c>
@@ -4401,7 +4367,7 @@
       <c r="N121" s="24"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>11</v>
       </c>
@@ -4419,11 +4385,11 @@
         <v>12</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>59</v>
@@ -4434,7 +4400,7 @@
       <c r="N122" s="24"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>15</v>
       </c>
@@ -4469,7 +4435,7 @@
       <c r="N123" s="24"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
@@ -4504,7 +4470,7 @@
       <c r="N124" s="24"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>21</v>
       </c>
@@ -4539,7 +4505,7 @@
       <c r="N125" s="24"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
         <v>24</v>
       </c>
@@ -4560,7 +4526,7 @@
       <c r="N126" s="24"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>25</v>
       </c>
@@ -4581,7 +4547,7 @@
       <c r="N127" s="24"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>10</v>
       </c>
@@ -4605,7 +4571,7 @@
       <c r="M128" s="41"/>
       <c r="N128" s="42"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>11</v>
       </c>
@@ -4625,7 +4591,7 @@
       <c r="M129" s="36"/>
       <c r="N129" s="24"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>15</v>
       </c>
@@ -4645,7 +4611,7 @@
       <c r="M130" s="36"/>
       <c r="N130" s="24"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>17</v>
       </c>
@@ -4665,7 +4631,7 @@
       <c r="M131" s="36"/>
       <c r="N131" s="24"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>21</v>
       </c>
@@ -4685,7 +4651,7 @@
       <c r="M132" s="36"/>
       <c r="N132" s="24"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B134" s="31" t="s">
         <v>70</v>
       </c>
@@ -4703,17 +4669,17 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -4740,7 +4706,7 @@
       </c>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -4769,7 +4735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4798,7 +4764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -4827,7 +4793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -4856,7 +4822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -4885,7 +4851,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -4914,7 +4880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4943,7 +4909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
@@ -4970,7 +4936,7 @@
       </c>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -4999,7 +4965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -5028,7 +4994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -5057,7 +5023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -5086,7 +5052,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -5115,7 +5081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
@@ -5144,10 +5110,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -5174,7 +5140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -5201,7 +5167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -5228,7 +5194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -5255,7 +5221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>21</v>
       </c>
@@ -5282,7 +5248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -5309,7 +5275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -5336,7 +5302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -5363,7 +5329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -5390,7 +5356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>21</v>
       </c>
@@ -5417,7 +5383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -5444,7 +5410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -5471,7 +5437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>

--- a/edt.xlsx
+++ b/edt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="128">
   <si>
     <t>Jour</t>
   </si>
@@ -174,9 +174,6 @@
     <t>La Poste</t>
   </si>
   <si>
-    <t xml:space="preserve">JM Misert </t>
-  </si>
-  <si>
     <t xml:space="preserve">OS sécurisés </t>
   </si>
   <si>
@@ -225,166 +222,193 @@
     <t>Charte et cyber surveillance</t>
   </si>
   <si>
-    <t>Laurent Walle</t>
-  </si>
-  <si>
     <t>Sécurisation des contrats</t>
   </si>
   <si>
+    <t>V Lemoine</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>OCR04</t>
+  </si>
+  <si>
+    <t>0CR04</t>
+  </si>
+  <si>
+    <t>OCR07</t>
+  </si>
+  <si>
+    <t>OCR05</t>
+  </si>
+  <si>
+    <t>OCR10</t>
+  </si>
+  <si>
+    <t>P. Lallement</t>
+  </si>
+  <si>
+    <t>Risques / Menaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processus post-incident </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriété et protection des logiciels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exemples d'incidents </t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>Forum UTT</t>
+  </si>
+  <si>
+    <t>Intrinsec</t>
+  </si>
+  <si>
+    <t>Y Bortoluzzi</t>
+  </si>
+  <si>
+    <t>JL TO</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>12H-14H</t>
+  </si>
+  <si>
+    <t>Sécurisation des contrats info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charte et cybersurveillance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traitement juridique des incidents </t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>salle</t>
+  </si>
+  <si>
+    <t>GS11 G1</t>
+  </si>
+  <si>
+    <t>GS11 G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UTT</t>
+  </si>
+  <si>
+    <t>TD - Etude de cas + Suivi projets</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>PL+AC</t>
+  </si>
+  <si>
+    <t>CIG</t>
+  </si>
+  <si>
+    <t>Moez Esseghir</t>
+  </si>
+  <si>
+    <t>Khalifa Toumi</t>
+  </si>
+  <si>
+    <t>SystemX</t>
+  </si>
+  <si>
+    <t>GS16 (suivi projets)</t>
+  </si>
+  <si>
+    <t>Société Générale</t>
+  </si>
+  <si>
+    <t>Safaa Hachana</t>
+  </si>
+  <si>
+    <t>Gregory Blanc</t>
+  </si>
+  <si>
+    <t>Telecoms SudParis</t>
+  </si>
+  <si>
+    <t>Samiha Ayed</t>
+  </si>
+  <si>
+    <t>soutenance projets</t>
+  </si>
+  <si>
+    <t>PL/ME/AC</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sécurité multi-cloud </t>
+  </si>
+  <si>
+    <t>M208</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>suivi de projets GS21</t>
+  </si>
+  <si>
+    <t>Suivi projets GS11</t>
+  </si>
+  <si>
+    <t>Gestion de crises cyber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suivi projets   </t>
+  </si>
+  <si>
     <t>MA de Montlivault</t>
   </si>
   <si>
-    <t>V Lemoine</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>OCR04</t>
-  </si>
-  <si>
-    <t>0CR04</t>
-  </si>
-  <si>
-    <t>OCR07</t>
-  </si>
-  <si>
-    <t>OCR05</t>
-  </si>
-  <si>
-    <t>OCR10</t>
-  </si>
-  <si>
-    <t>P. Lallement</t>
-  </si>
-  <si>
-    <t>Risques / Menaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processus post-incident </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propriété et protection des logiciels </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exemples d'incidents </t>
-  </si>
-  <si>
-    <t>IAM</t>
-  </si>
-  <si>
-    <t>Forum UTT</t>
-  </si>
-  <si>
-    <t>Gestion de crises</t>
-  </si>
-  <si>
-    <t>Intrinsec</t>
-  </si>
-  <si>
-    <t>Y Bortoluzzi</t>
-  </si>
-  <si>
-    <t>JL TO</t>
-  </si>
-  <si>
-    <t>Salesforce</t>
-  </si>
-  <si>
-    <t>12H-14H</t>
-  </si>
-  <si>
-    <t>Sécurisation des contrats info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charte et cybersurveillance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traitement juridique des incidents </t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t>salle</t>
-  </si>
-  <si>
-    <t>GS11 G1</t>
-  </si>
-  <si>
-    <t>GS11 G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UTT</t>
-  </si>
-  <si>
-    <t>TD - Etude de cas + Suivi projets</t>
-  </si>
-  <si>
-    <t>LBP</t>
-  </si>
-  <si>
-    <t>Suivi projets</t>
-  </si>
-  <si>
-    <t>PL+AC</t>
-  </si>
-  <si>
-    <t>suivi de projets GSxx</t>
-  </si>
-  <si>
-    <t>CIG</t>
-  </si>
-  <si>
-    <t>Moez Esseghir</t>
-  </si>
-  <si>
-    <t>Khalifa Toumi</t>
-  </si>
-  <si>
-    <t>SystemX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. Lallement </t>
-  </si>
-  <si>
-    <t>GS16 (suivi projets)</t>
-  </si>
-  <si>
-    <t>Société Générale</t>
-  </si>
-  <si>
-    <t>Safaa Hachana</t>
-  </si>
-  <si>
-    <t>Gregory Blanc</t>
-  </si>
-  <si>
-    <t>Telecoms SudParis</t>
-  </si>
-  <si>
-    <t>Samiha Ayed</t>
-  </si>
-  <si>
-    <t>soutenance projets</t>
-  </si>
-  <si>
-    <t>PL/ME/AC</t>
-  </si>
-  <si>
-    <t>B202</t>
-  </si>
-  <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>C103</t>
-  </si>
-  <si>
-    <t>B105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sécurité multi-cloud </t>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>GS21 suivi</t>
+  </si>
+  <si>
+    <t>GS13 (suivi)</t>
+  </si>
+  <si>
+    <t>GS13 suivi</t>
+  </si>
+  <si>
+    <t>GS11 suivi</t>
+  </si>
+  <si>
+    <t>suivi de projets GS11</t>
+  </si>
+  <si>
+    <t>PL+ME</t>
   </si>
 </sst>
 </file>
@@ -896,28 +920,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -958,13 +983,13 @@
         <v>9</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -985,7 +1010,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1024,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>35</v>
@@ -1063,10 +1088,10 @@
       </c>
       <c r="N4" s="24"/>
       <c r="O4" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1092,7 +1117,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>14</v>
@@ -1101,13 +1126,13 @@
         <v>14</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1145,10 +1170,10 @@
         <v>16</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1194,7 @@
       <c r="N7" s="24"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1190,7 +1215,7 @@
       <c r="N8" s="24"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1225,7 @@
       <c r="N9" s="24"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1239,13 +1264,13 @@
         <v>14</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1256,7 +1281,7 @@
         <v>26</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>35</v>
@@ -1269,10 +1294,10 @@
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1320,7 @@
         <v>20</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>14</v>
@@ -1304,13 +1329,13 @@
         <v>14</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1324,7 +1349,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>20</v>
@@ -1339,10 +1364,10 @@
         <v>16</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1363,7 +1388,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1409,7 @@
       <c r="N15" s="24"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1419,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1433,13 +1458,13 @@
         <v>14</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1453,7 +1478,7 @@
         <v>26</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="22" t="s">
@@ -1467,10 +1492,10 @@
       </c>
       <c r="N18" s="24"/>
       <c r="O18" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1490,28 +1515,28 @@
         <v>16</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1531,25 +1556,25 @@
         <v>22</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
@@ -1570,7 +1595,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
@@ -1591,7 +1616,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1601,7 +1626,7 @@
       <c r="N23" s="24"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -1615,7 +1640,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -1626,7 +1651,7 @@
       <c r="N24" s="24"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1640,7 +1665,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="22" t="s">
@@ -1654,10 +1679,10 @@
       </c>
       <c r="N25" s="24"/>
       <c r="O25" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1681,22 +1706,22 @@
         <v>20</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1716,7 +1741,7 @@
         <v>39</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>16</v>
@@ -1725,19 +1750,19 @@
         <v>16</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M27" s="30" t="s">
         <v>40</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
@@ -1758,7 +1783,7 @@
       <c r="N28" s="24"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
@@ -1779,7 +1804,7 @@
       <c r="N29" s="24"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1791,7 +1816,7 @@
       <c r="N30" s="24"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -1830,13 +1855,13 @@
         <v>14</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1850,7 +1875,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>35</v>
@@ -1863,10 +1888,10 @@
       </c>
       <c r="N32" s="24"/>
       <c r="O32" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -1889,22 +1914,22 @@
         <v>35</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -1921,25 +1946,25 @@
         <v>22</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M34" s="25" t="s">
         <v>14</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>24</v>
       </c>
@@ -1960,7 +1985,7 @@
       <c r="N35" s="24"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>25</v>
       </c>
@@ -1981,7 +2006,7 @@
       <c r="N36" s="24"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -1991,7 +2016,7 @@
       <c r="N37" s="24"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
@@ -2030,13 +2055,13 @@
         <v>14</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
@@ -2050,23 +2075,23 @@
         <v>26</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L39" s="36" t="s">
         <v>16</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N39" s="24"/>
       <c r="O39" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -2092,7 +2117,7 @@
         <v>37</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>14</v>
@@ -2101,13 +2126,13 @@
         <v>14</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -2136,19 +2161,19 @@
         <v>45</v>
       </c>
       <c r="L41" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M41" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N41" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O41" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -2169,7 +2194,7 @@
       <c r="N42" s="24"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>25</v>
       </c>
@@ -2190,7 +2215,7 @@
       <c r="N43" s="24"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -2211,7 +2236,7 @@
       <c r="N44" s="24"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2232,7 +2257,7 @@
       <c r="N45" s="24"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -2253,7 +2278,7 @@
       <c r="N46" s="24"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +2299,7 @@
       <c r="N47" s="24"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -2295,7 +2320,7 @@
       <c r="N48" s="24"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>24</v>
       </c>
@@ -2316,7 +2341,7 @@
       <c r="N49" s="24"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>25</v>
       </c>
@@ -2337,7 +2362,7 @@
       <c r="N50" s="24"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -2364,7 +2389,7 @@
       <c r="N51" s="24"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2403,13 +2428,13 @@
         <v>14</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -2439,10 +2464,10 @@
       </c>
       <c r="N53" s="24"/>
       <c r="O53" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -2456,16 +2481,16 @@
         <v>18</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>14</v>
@@ -2474,21 +2499,48 @@
         <v>14</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="4">
         <v>44505</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>24</v>
       </c>
@@ -2509,7 +2561,7 @@
       <c r="N56" s="24"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>25</v>
       </c>
@@ -2530,7 +2582,7 @@
       <c r="N57" s="24"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2553,25 +2605,25 @@
         <v>22</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M58" s="25" t="s">
         <v>16</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2610,13 +2662,13 @@
         <v>14</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
@@ -2646,10 +2698,10 @@
       </c>
       <c r="N60" s="24"/>
       <c r="O60" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -2682,7 +2734,7 @@
       <c r="N61" s="24"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
@@ -2696,7 +2748,7 @@
         <v>22</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>20</v>
@@ -2711,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>24</v>
       </c>
@@ -2735,7 +2787,7 @@
       <c r="N63" s="24"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>25</v>
       </c>
@@ -2756,18 +2808,23 @@
       <c r="N64" s="24"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="4">
         <v>44515</v>
       </c>
-      <c r="D65" s="24"/>
+      <c r="D65" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
       <c r="N65" s="24"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2806,36 +2863,50 @@
         <v>14</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B67" s="4">
         <v>44517</v>
       </c>
+      <c r="D67" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="I67" s="22" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="22" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N67" s="24"/>
-      <c r="O67" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N67" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="O67" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -2843,37 +2914,37 @@
         <v>44518</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K68" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N68" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L68" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="O68" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>21</v>
       </c>
@@ -2896,23 +2967,23 @@
         <v>39</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="L69" s="30" t="s">
         <v>40</v>
       </c>
       <c r="M69" s="30"/>
       <c r="N69" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O69" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>24</v>
       </c>
@@ -2939,7 +3010,7 @@
       <c r="N70" s="24"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>25</v>
       </c>
@@ -2960,7 +3031,7 @@
       <c r="N71" s="24"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2977,7 +3048,7 @@
       <c r="N72" s="24"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>11</v>
       </c>
@@ -3016,30 +3087,40 @@
         <v>14</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B74" s="4">
         <v>44524</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="22" t="s">
-        <v>101</v>
+      <c r="D74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="J74" s="3"/>
-      <c r="K74" s="22" t="s">
-        <v>35</v>
+      <c r="K74" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L74" s="3"/>
-      <c r="M74" s="22" t="s">
+      <c r="M74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="N74" s="24"/>
@@ -3047,7 +3128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -3061,16 +3142,16 @@
         <v>18</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>14</v>
@@ -3079,13 +3160,13 @@
         <v>14</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>21</v>
       </c>
@@ -3104,29 +3185,29 @@
       <c r="G76" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L76" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M76" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>24</v>
       </c>
@@ -3147,7 +3228,7 @@
       <c r="N77" s="24"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>25</v>
       </c>
@@ -3168,7 +3249,7 @@
       <c r="N78" s="24"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>10</v>
       </c>
@@ -3176,37 +3257,37 @@
         <v>44529</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
       </c>
       <c r="M79" s="40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N79" s="24"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>11</v>
       </c>
@@ -3245,13 +3326,13 @@
         <v>14</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>15</v>
       </c>
@@ -3265,7 +3346,7 @@
         <v>26</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J81" t="s">
         <v>16</v>
@@ -3281,10 +3362,10 @@
       </c>
       <c r="N81" s="24"/>
       <c r="O81" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -3307,25 +3388,25 @@
         <v>20</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S82" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>21</v>
       </c>
@@ -3348,25 +3429,25 @@
         <v>22</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L83" s="25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M83" s="25" t="s">
         <v>16</v>
       </c>
       <c r="N83" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O83" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>24</v>
       </c>
@@ -3390,7 +3471,7 @@
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>25</v>
       </c>
@@ -3414,7 +3495,7 @@
       <c r="Q85" s="18"/>
       <c r="R85" s="18"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>10</v>
       </c>
@@ -3436,7 +3517,7 @@
       <c r="Q86" s="18"/>
       <c r="R86" s="18"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>11</v>
       </c>
@@ -3475,16 +3556,16 @@
         <v>14</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P87" s="18"/>
       <c r="Q87" s="18"/>
       <c r="R87" s="18"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
@@ -3498,7 +3579,7 @@
         <v>26</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>16</v>
@@ -3510,17 +3591,17 @@
         <v>16</v>
       </c>
       <c r="M88" s="38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N88" s="24"/>
       <c r="O88" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="P88" s="18"/>
       <c r="Q88" s="18"/>
       <c r="R88" s="18"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
@@ -3543,7 +3624,7 @@
         <v>20</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L89" s="6" t="s">
         <v>14</v>
@@ -3552,16 +3633,16 @@
         <v>14</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="P89" s="18"/>
       <c r="Q89" s="18"/>
       <c r="R89" s="18"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
@@ -3584,7 +3665,7 @@
         <v>39</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>16</v>
@@ -3599,16 +3680,16 @@
         <v>40</v>
       </c>
       <c r="N90" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O90" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P90" s="18"/>
       <c r="Q90" s="18"/>
       <c r="R90" s="18"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>24</v>
       </c>
@@ -3632,7 +3713,7 @@
       <c r="Q91" s="18"/>
       <c r="R91" s="18"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>25</v>
       </c>
@@ -3653,7 +3734,7 @@
       <c r="N92" s="24"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
@@ -3663,7 +3744,7 @@
       <c r="N93" s="24"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>11</v>
       </c>
@@ -3702,13 +3783,13 @@
         <v>14</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>15</v>
       </c>
@@ -3725,7 +3806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>17</v>
       </c>
@@ -3733,10 +3814,10 @@
         <v>44546</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -3748,10 +3829,10 @@
         <v>16</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>21</v>
       </c>
@@ -3786,10 +3867,10 @@
         <v>16</v>
       </c>
       <c r="O97" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>24</v>
       </c>
@@ -3810,7 +3891,7 @@
       <c r="N98" s="24"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>25</v>
       </c>
@@ -3831,7 +3912,7 @@
       <c r="N99" s="24"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>10</v>
       </c>
@@ -3852,7 +3933,7 @@
       <c r="N100" s="24"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>11</v>
       </c>
@@ -3873,7 +3954,7 @@
       <c r="N101" s="24"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>15</v>
       </c>
@@ -3894,7 +3975,7 @@
       <c r="N102" s="24"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>17</v>
       </c>
@@ -3915,7 +3996,7 @@
       <c r="N103" s="24"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>21</v>
       </c>
@@ -3950,7 +4031,7 @@
       <c r="N104" s="24"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>24</v>
       </c>
@@ -3971,7 +4052,7 @@
       <c r="N105" s="24"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>25</v>
       </c>
@@ -3992,7 +4073,7 @@
       <c r="N106" s="24"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>10</v>
       </c>
@@ -4013,7 +4094,7 @@
       <c r="N107" s="24"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>11</v>
       </c>
@@ -4034,7 +4115,7 @@
       <c r="N108" s="24"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>15</v>
       </c>
@@ -4055,7 +4136,7 @@
       <c r="N109" s="24"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>17</v>
       </c>
@@ -4076,7 +4157,7 @@
       <c r="N110" s="24"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>21</v>
       </c>
@@ -4097,7 +4178,7 @@
       <c r="N111" s="24"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>24</v>
       </c>
@@ -4118,7 +4199,7 @@
       <c r="N112" s="24"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>25</v>
       </c>
@@ -4139,7 +4220,7 @@
       <c r="N113" s="24"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>10</v>
       </c>
@@ -4160,7 +4241,7 @@
       <c r="N114" s="24"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="24" t="s">
         <v>11</v>
       </c>
@@ -4178,22 +4259,22 @@
         <v>12</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N115" s="24"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="24" t="s">
         <v>15</v>
       </c>
@@ -4215,22 +4296,22 @@
         <v>26</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N116" s="24"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="24" t="s">
         <v>17</v>
       </c>
@@ -4252,22 +4333,22 @@
         <v>18</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="6" t="s">
         <v>38</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N117" s="24"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="24" t="s">
         <v>21</v>
       </c>
@@ -4289,22 +4370,22 @@
         <v>22</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N118" s="24"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>24</v>
       </c>
@@ -4325,7 +4406,7 @@
       <c r="N119" s="24"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>25</v>
       </c>
@@ -4346,7 +4427,7 @@
       <c r="N120" s="24"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>10</v>
       </c>
@@ -4367,7 +4448,7 @@
       <c r="N121" s="24"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>11</v>
       </c>
@@ -4385,22 +4466,22 @@
         <v>12</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M122" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N122" s="24"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>15</v>
       </c>
@@ -4421,21 +4502,21 @@
         <v>26</v>
       </c>
       <c r="I123" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K123" s="27" t="s">
         <v>38</v>
       </c>
       <c r="L123" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M123" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N123" s="24"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
@@ -4456,21 +4537,21 @@
         <v>18</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K124" s="26" t="s">
         <v>38</v>
       </c>
       <c r="L124" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M124" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N124" s="24"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>21</v>
       </c>
@@ -4491,21 +4572,21 @@
         <v>22</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K125" s="27" t="s">
         <v>38</v>
       </c>
       <c r="L125" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M125" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N125" s="24"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>24</v>
       </c>
@@ -4526,7 +4607,7 @@
       <c r="N126" s="24"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>25</v>
       </c>
@@ -4547,7 +4628,7 @@
       <c r="N127" s="24"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>10</v>
       </c>
@@ -4571,7 +4652,7 @@
       <c r="M128" s="41"/>
       <c r="N128" s="42"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>11</v>
       </c>
@@ -4591,7 +4672,7 @@
       <c r="M129" s="36"/>
       <c r="N129" s="24"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>15</v>
       </c>
@@ -4611,7 +4692,7 @@
       <c r="M130" s="36"/>
       <c r="N130" s="24"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>17</v>
       </c>
@@ -4631,7 +4712,7 @@
       <c r="M131" s="36"/>
       <c r="N131" s="24"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>21</v>
       </c>
@@ -4651,9 +4732,9 @@
       <c r="M132" s="36"/>
       <c r="N132" s="24"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B134" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4666,20 +4747,20 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -4706,7 +4787,7 @@
       </c>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -4728,14 +4809,12 @@
       <c r="G2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>49</v>
-      </c>
+      <c r="H2" s="25"/>
       <c r="I2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4755,16 +4834,14 @@
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>20</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H3" s="25"/>
       <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -4784,16 +4861,14 @@
         <v>39</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>66</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H4" s="30"/>
       <c r="I4" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -4813,16 +4888,14 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>20</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H5" s="25"/>
       <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -4842,16 +4915,14 @@
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>42</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H6" s="25"/>
       <c r="I6" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -4873,14 +4944,12 @@
       <c r="G7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>45</v>
-      </c>
+      <c r="H7" s="30"/>
       <c r="I7" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4900,16 +4969,14 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>20</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H8" s="25"/>
       <c r="I8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
@@ -4931,12 +4998,10 @@
       <c r="G9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="H9" s="14"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -4956,16 +5021,14 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -4985,16 +5048,14 @@
         <v>39</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H11" s="17"/>
       <c r="I11" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -5014,16 +5075,14 @@
         <v>39</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -5043,16 +5102,14 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -5074,14 +5131,12 @@
       <c r="G14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
@@ -5101,19 +5156,17 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -5121,26 +5174,26 @@
         <v>43902</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -5148,26 +5201,26 @@
         <v>43909</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -5175,26 +5228,26 @@
         <v>43916</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -5202,26 +5255,26 @@
         <v>43923</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>21</v>
       </c>
@@ -5229,26 +5282,26 @@
         <v>43930</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -5256,26 +5309,26 @@
         <v>43937</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -5283,26 +5336,26 @@
         <v>43944</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -5310,26 +5363,26 @@
         <v>43958</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -5337,26 +5390,26 @@
         <v>43972</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>21</v>
       </c>
@@ -5364,26 +5417,26 @@
         <v>43979</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -5391,26 +5444,26 @@
         <v>43986</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -5418,26 +5471,26 @@
         <v>43993</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -5445,20 +5498,20 @@
         <v>44000</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>14</v>

--- a/edt.xlsx
+++ b/edt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="134">
   <si>
     <t>Jour</t>
   </si>
@@ -409,6 +409,24 @@
   </si>
   <si>
     <t>PL+ME</t>
+  </si>
+  <si>
+    <t>zoom</t>
+  </si>
+  <si>
+    <t>A. Corpel</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>Teams/zoom</t>
+  </si>
+  <si>
+    <t>Travail perso sur les projets (alternants)</t>
   </si>
 </sst>
 </file>
@@ -920,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,12 +952,13 @@
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1222,6 +1241,9 @@
       <c r="B9" s="4">
         <v>44459</v>
       </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
       <c r="N9" s="24"/>
       <c r="O9" s="3"/>
     </row>
@@ -1623,6 +1645,19 @@
       <c r="B23" s="4">
         <v>44473</v>
       </c>
+      <c r="D23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="G23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>133</v>
+      </c>
       <c r="N23" s="24"/>
       <c r="O23" s="3"/>
     </row>
@@ -1811,7 +1846,19 @@
       <c r="B30" s="4">
         <v>44480</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="D30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="G30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
       <c r="K30" s="19"/>
       <c r="N30" s="24"/>
       <c r="O30" s="3"/>
@@ -1898,10 +1945,10 @@
       <c r="B33" s="4">
         <v>44483</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="46" t="s">
@@ -2013,6 +2060,19 @@
       <c r="B37" s="4">
         <v>44487</v>
       </c>
+      <c r="D37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="G37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>133</v>
+      </c>
       <c r="N37" s="24"/>
       <c r="O37" s="3"/>
     </row>
@@ -2502,7 +2562,7 @@
         <v>120</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -2512,14 +2572,14 @@
       <c r="B55" s="4">
         <v>44505</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>124</v>
@@ -2528,10 +2588,10 @@
         <v>118</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>95</v>
+        <v>35</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
       </c>
       <c r="N55" s="7" t="s">
         <v>121</v>
@@ -2617,10 +2677,10 @@
         <v>16</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -2677,6 +2737,12 @@
       </c>
       <c r="C60" t="s">
         <v>16</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>26</v>
@@ -2741,6 +2807,12 @@
       <c r="B62" s="4">
         <v>44512</v>
       </c>
+      <c r="D62" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="G62" s="7" t="s">
         <v>22</v>
       </c>
@@ -2751,7 +2823,10 @@
         <v>50</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -2815,11 +2890,18 @@
       <c r="B65" s="4">
         <v>44515</v>
       </c>
-      <c r="D65" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
+      <c r="D65" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="G65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" t="s">
+        <v>133</v>
       </c>
       <c r="N65" s="24"/>
       <c r="O65" s="3"/>
@@ -2876,11 +2958,11 @@
       <c r="B67" s="4">
         <v>44517</v>
       </c>
-      <c r="D67" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>122</v>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
       </c>
       <c r="G67" s="22" t="s">
         <v>122</v>
@@ -2893,7 +2975,7 @@
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="22" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="22" t="s">
@@ -2938,7 +3020,7 @@
         <v>101</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O68" s="8" t="s">
         <v>114</v>
@@ -2979,7 +3061,7 @@
       <c r="N69" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="O69" s="30" t="s">
+      <c r="O69" s="17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3038,9 +3120,19 @@
       <c r="B72" s="4">
         <v>44522</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="D72" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="G72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" t="s">
+        <v>133</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="L72" t="s">
         <v>16</v>
@@ -3117,15 +3209,15 @@
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="6" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="N74" s="24"/>
-      <c r="O74" s="22" t="s">
-        <v>16</v>
+      <c r="O74" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -3160,10 +3252,10 @@
         <v>14</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -3203,7 +3295,7 @@
       <c r="N76" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="O76" s="14" t="s">
+      <c r="O76" s="17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3361,7 +3453,7 @@
         <v>14</v>
       </c>
       <c r="N81" s="24"/>
-      <c r="O81" s="12" t="s">
+      <c r="O81" s="22" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3397,7 +3489,7 @@
         <v>104</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>113</v>
@@ -3443,7 +3535,7 @@
       <c r="N83" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O83" s="25" t="s">
+      <c r="O83" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3502,14 +3594,18 @@
       <c r="B86" s="4">
         <v>44536</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>16</v>
+      <c r="D86" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="G86" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" t="s">
+        <v>133</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -3594,7 +3690,7 @@
         <v>94</v>
       </c>
       <c r="N88" s="24"/>
-      <c r="O88" s="12" t="s">
+      <c r="O88" s="22" t="s">
         <v>110</v>
       </c>
       <c r="P88" s="18"/>
@@ -3633,7 +3729,7 @@
         <v>14</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="O89" s="8" t="s">
         <v>108</v>
@@ -3682,7 +3778,7 @@
       <c r="N90" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="O90" s="30" t="s">
+      <c r="O90" s="17" t="s">
         <v>88</v>
       </c>
       <c r="P90" s="18"/>
@@ -3741,6 +3837,19 @@
       <c r="B93" s="4">
         <v>44543</v>
       </c>
+      <c r="D93" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="G93" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s">
+        <v>133</v>
+      </c>
       <c r="N93" s="24"/>
       <c r="O93" s="3"/>
     </row>
@@ -3866,7 +3975,7 @@
       <c r="N97" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O97" s="25" t="s">
+      <c r="O97" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4747,7 +4856,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/edt.xlsx
+++ b/edt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="137">
   <si>
     <t>Jour</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>Travail perso sur les projets (alternants)</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>C104</t>
+  </si>
+  <si>
+    <t>Laurent Wahl</t>
   </si>
 </sst>
 </file>
@@ -938,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3293,10 +3302,10 @@
         <v>94</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="O76" s="17" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -3376,8 +3385,12 @@
       <c r="M79" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="N79" s="24"/>
-      <c r="O79" s="3"/>
+      <c r="N79" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="O79" s="40" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -3764,7 +3777,7 @@
         <v>86</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>16</v>

--- a/edt.xlsx
+++ b/edt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="147">
   <si>
     <t>Jour</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Samiha Ayed</t>
   </si>
   <si>
-    <t>soutenance projets</t>
-  </si>
-  <si>
     <t>PL/ME/AC</t>
   </si>
   <si>
@@ -435,7 +432,40 @@
     <t>C104</t>
   </si>
   <si>
-    <t>Laurent Wahl</t>
+    <t>GS11 Exam</t>
+  </si>
+  <si>
+    <t>GS11 soutenances</t>
+  </si>
+  <si>
+    <t>Moodle</t>
+  </si>
+  <si>
+    <t>GS10 Exam</t>
+  </si>
+  <si>
+    <t>GS13 soutenances</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GS13 Exam</t>
+  </si>
+  <si>
+    <t>GS21 Exam</t>
+  </si>
+  <si>
+    <t>GS16 soutenances</t>
+  </si>
+  <si>
+    <t>GS21 soutenances</t>
+  </si>
+  <si>
+    <t>GS21 Soutenances</t>
+  </si>
+  <si>
+    <t>Veille technologique (video Moodle)</t>
+  </si>
+  <si>
+    <t>Laurent Walle</t>
   </si>
 </sst>
 </file>
@@ -616,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -665,6 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +988,7 @@
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1077,10 +1108,10 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1116,7 +1147,7 @@
       </c>
       <c r="N4" s="24"/>
       <c r="O4" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1154,10 +1185,10 @@
         <v>14</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,10 +1326,10 @@
         <v>14</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1325,7 +1356,7 @@
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1360,10 +1391,10 @@
         <v>14</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1489,10 +1520,10 @@
         <v>14</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1523,7 +1554,7 @@
       </c>
       <c r="N18" s="24"/>
       <c r="O18" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1561,10 +1592,10 @@
         <v>99</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1665,7 +1696,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="3"/>
@@ -1723,7 +1754,7 @@
       </c>
       <c r="N25" s="24"/>
       <c r="O25" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1759,10 +1790,10 @@
         <v>99</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1866,7 +1897,7 @@
         <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K30" s="19"/>
       <c r="N30" s="24"/>
@@ -1911,10 +1942,10 @@
         <v>14</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1944,7 +1975,7 @@
       </c>
       <c r="N32" s="24"/>
       <c r="O32" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1979,10 +2010,10 @@
         <v>99</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2080,7 +2111,7 @@
         <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N37" s="24"/>
       <c r="O37" s="3"/>
@@ -2124,10 +2155,10 @@
         <v>14</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2144,7 +2175,7 @@
         <v>26</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>81</v>
@@ -2157,7 +2188,7 @@
       </c>
       <c r="N39" s="24"/>
       <c r="O39" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2195,10 +2226,10 @@
         <v>14</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2497,10 +2528,10 @@
         <v>14</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2533,7 +2564,7 @@
       </c>
       <c r="N53" s="24"/>
       <c r="O53" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -2559,19 +2590,19 @@
         <v>36</v>
       </c>
       <c r="K54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O54" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -2588,13 +2619,13 @@
         <v>16</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="I55" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>35</v>
@@ -2603,10 +2634,10 @@
         <v>16</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -2686,10 +2717,10 @@
         <v>16</v>
       </c>
       <c r="N58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O58" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -2731,10 +2762,10 @@
         <v>14</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -2748,10 +2779,10 @@
         <v>16</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>26</v>
@@ -2773,7 +2804,7 @@
       </c>
       <c r="N60" s="24"/>
       <c r="O60" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -2817,10 +2848,10 @@
         <v>44512</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>22</v>
@@ -2835,7 +2866,7 @@
         <v>95</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -2910,7 +2941,7 @@
         <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N65" s="24"/>
       <c r="O65" s="3"/>
@@ -2954,10 +2985,10 @@
         <v>14</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -2974,13 +3005,13 @@
         <v>16</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="22" t="s">
@@ -2991,10 +3022,10 @@
         <v>14</v>
       </c>
       <c r="N67" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O67" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -3005,16 +3036,16 @@
         <v>44518</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>95</v>
@@ -3029,10 +3060,10 @@
         <v>101</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -3061,7 +3092,7 @@
         <v>76</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L69" s="30" t="s">
         <v>40</v>
@@ -3140,7 +3171,7 @@
         <v>22</v>
       </c>
       <c r="I72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J72" s="3"/>
       <c r="L72" t="s">
@@ -3188,10 +3219,10 @@
         <v>14</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -3208,13 +3239,13 @@
         <v>16</v>
       </c>
       <c r="G74" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="6" t="s">
@@ -3226,7 +3257,7 @@
       </c>
       <c r="N74" s="24"/>
       <c r="O74" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -3252,7 +3283,7 @@
         <v>20</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>14</v>
@@ -3261,10 +3292,10 @@
         <v>14</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -3302,10 +3333,10 @@
         <v>94</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O76" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -3373,7 +3404,7 @@
         <v>91</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="6" t="s">
@@ -3386,10 +3417,10 @@
         <v>83</v>
       </c>
       <c r="N79" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="O79" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="O79" s="40" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -3431,10 +3462,10 @@
         <v>14</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -3467,7 +3498,7 @@
       </c>
       <c r="N81" s="24"/>
       <c r="O81" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -3502,10 +3533,10 @@
         <v>104</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S82" t="s">
         <v>16</v>
@@ -3618,7 +3649,7 @@
         <v>22</v>
       </c>
       <c r="I86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -3665,10 +3696,10 @@
         <v>14</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P87" s="18"/>
       <c r="Q87" s="18"/>
@@ -3704,7 +3735,7 @@
       </c>
       <c r="N88" s="24"/>
       <c r="O88" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P88" s="18"/>
       <c r="Q88" s="18"/>
@@ -3742,10 +3773,10 @@
         <v>14</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P89" s="18"/>
       <c r="Q89" s="18"/>
@@ -3777,7 +3808,7 @@
         <v>86</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>16</v>
@@ -3789,10 +3820,10 @@
         <v>40</v>
       </c>
       <c r="N90" s="30" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="O90" s="17" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="P90" s="18"/>
       <c r="Q90" s="18"/>
@@ -3861,7 +3892,7 @@
         <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N93" s="24"/>
       <c r="O93" s="3"/>
@@ -3905,10 +3936,10 @@
         <v>14</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -3951,7 +3982,7 @@
         <v>16</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -3974,7 +4005,7 @@
         <v>16</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="J97" s="25" t="s">
         <v>20</v>
@@ -3989,7 +4020,7 @@
         <v>16</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -4371,27 +4402,31 @@
         <v>44565</v>
       </c>
       <c r="C115" s="24"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="8" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>106</v>
+        <v>142</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="N115" s="24"/>
       <c r="O115" s="3"/>
@@ -4404,30 +4439,30 @@
         <v>44566</v>
       </c>
       <c r="C116" s="24"/>
-      <c r="D116" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>26</v>
+      <c r="D116" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="22" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>57</v>
+        <v>144</v>
+      </c>
+      <c r="I116" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L116" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M116" s="7" t="s">
+      <c r="L116" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="M116" s="22" t="s">
         <v>58</v>
       </c>
       <c r="N116" s="24"/>
@@ -4441,28 +4476,28 @@
         <v>44567</v>
       </c>
       <c r="C117" s="24"/>
-      <c r="D117" s="6" t="s">
-        <v>18</v>
+      <c r="D117" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="6" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>57</v>
+        <v>136</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="6" t="s">
         <v>38</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="M117" s="6" t="s">
         <v>58</v>
@@ -4478,28 +4513,28 @@
         <v>44568</v>
       </c>
       <c r="C118" s="24"/>
-      <c r="D118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>22</v>
+      <c r="D118" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="7" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L118" s="7" t="s">
-        <v>58</v>
+      <c r="L118" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="M118" s="7" t="s">
         <v>58</v>
@@ -4578,27 +4613,27 @@
         <v>44572</v>
       </c>
       <c r="C122" s="3"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>106</v>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="J122" s="3"/>
-      <c r="K122" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L122" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M122" s="8" t="s">
-        <v>58</v>
+      <c r="K122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N122" s="24"/>
       <c r="O122" s="3"/>
@@ -4611,28 +4646,29 @@
         <v>44573</v>
       </c>
       <c r="C123" s="3"/>
-      <c r="D123" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E123" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="D123" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="3"/>
       <c r="G123" s="22" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I123" s="22" t="s">
-        <v>57</v>
+        <v>143</v>
+      </c>
+      <c r="I123" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="K123" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L123" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M123" s="27" t="s">
+      <c r="L123" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M123" s="22" t="s">
         <v>58</v>
       </c>
       <c r="N123" s="24"/>
@@ -4645,21 +4681,21 @@
       <c r="B124" s="4">
         <v>44574</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="23" t="s">
-        <v>57</v>
+      <c r="C124" s="48"/>
+      <c r="D124" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I124" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="K124" s="26" t="s">
         <v>38</v>
@@ -4667,8 +4703,8 @@
       <c r="L124" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M124" s="26" t="s">
-        <v>58</v>
+      <c r="M124" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="N124" s="24"/>
       <c r="O124" s="3"/>
@@ -4682,19 +4718,19 @@
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K125" s="27" t="s">
         <v>38</v>

--- a/edt.xlsx
+++ b/edt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="147">
   <si>
     <t>Jour</t>
   </si>
@@ -201,9 +201,6 @@
     <t>soutenances projets</t>
   </si>
   <si>
-    <t>X124</t>
-  </si>
-  <si>
     <t xml:space="preserve">ICS: Sécurité </t>
   </si>
   <si>
@@ -465,7 +462,10 @@
     <t>Veille technologique (video Moodle)</t>
   </si>
   <si>
-    <t>Laurent Walle</t>
+    <t>GS15 Exam</t>
+  </si>
+  <si>
+    <t>Emmanuel Walle</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -660,7 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -978,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1035,17 +1034,17 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="44" t="s">
-        <v>62</v>
+      <c r="N1" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1064,8 +1063,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
@@ -1108,10 +1107,10 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1139,15 +1138,15 @@
       <c r="K4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="35" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="24"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1176,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>14</v>
@@ -1185,10 +1184,10 @@
         <v>14</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1219,17 +1218,17 @@
         <v>20</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="24" t="s">
+      <c r="L6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1250,7 +1249,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="24"/>
+      <c r="N7" s="23"/>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1271,7 +1270,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="24"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1284,7 +1283,7 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1326,10 +1325,10 @@
         <v>14</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1343,20 +1342,20 @@
         <v>26</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="35" t="s">
         <v>16</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="24"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1366,10 +1365,10 @@
       <c r="B12" s="4">
         <v>44462</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -1382,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>14</v>
@@ -1391,10 +1390,10 @@
         <v>14</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1419,14 +1418,14 @@
       <c r="L13" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="24" t="s">
+      <c r="M13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1447,7 +1446,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="24"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1468,7 +1467,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="24"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1478,7 +1477,7 @@
       <c r="B16" s="4">
         <v>44466</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1520,10 +1519,10 @@
         <v>14</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1533,28 +1532,28 @@
       <c r="B18" s="4">
         <v>44468</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>77</v>
+      <c r="I18" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="35" t="s">
         <v>16</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="24"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1564,10 +1563,10 @@
       <c r="B19" s="4">
         <v>44469</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -1576,26 +1575,26 @@
       <c r="H19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="20" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="N19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1618,22 +1617,22 @@
         <v>22</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="25" t="s">
+      <c r="L20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1654,7 +1653,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="24"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1675,7 +1674,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="24"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1685,10 +1684,10 @@
       <c r="B23" s="4">
         <v>44473</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="13"/>
       <c r="G23" s="7" t="s">
         <v>22</v>
       </c>
@@ -1696,9 +1695,9 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
-      </c>
-      <c r="N23" s="24"/>
+        <v>131</v>
+      </c>
+      <c r="N23" s="23"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1715,7 +1714,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -1723,7 +1722,7 @@
         <v>16</v>
       </c>
       <c r="M24" s="10"/>
-      <c r="N24" s="24"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1733,28 +1732,28 @@
       <c r="B25" s="4">
         <v>44475</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="22" t="s">
-        <v>74</v>
+      <c r="I25" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="24"/>
+      <c r="M25" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="23"/>
       <c r="O25" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1773,27 +1772,27 @@
       <c r="G26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="N26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1803,38 +1802,38 @@
       <c r="B27" s="4">
         <v>44477</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="17" t="s">
+      <c r="I27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="16" t="s">
         <v>16</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="30" t="s">
+      <c r="L27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="O27" s="30" t="s">
-        <v>88</v>
+      <c r="N27" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1855,7 +1854,7 @@
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="24"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1876,7 +1875,7 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="24"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1886,10 +1885,10 @@
       <c r="B30" s="4">
         <v>44480</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
       <c r="G30" s="7" t="s">
         <v>22</v>
       </c>
@@ -1897,10 +1896,10 @@
         <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="N30" s="24"/>
+        <v>131</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -1925,10 +1924,10 @@
       <c r="G31" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="5" t="s">
         <v>23</v>
       </c>
@@ -1942,10 +1941,10 @@
         <v>14</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1955,14 +1954,14 @@
       <c r="B32" s="4">
         <v>44482</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>93</v>
+      <c r="I32" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>35</v>
@@ -1970,12 +1969,12 @@
       <c r="L32" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32" s="24"/>
+      <c r="M32" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="23"/>
       <c r="O32" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1991,29 +1990,29 @@
       <c r="E33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="20" t="s">
         <v>35</v>
       </c>
       <c r="K33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="N33" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2033,22 +2032,22 @@
         <v>22</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="25" t="s">
+      <c r="L34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="24" t="s">
         <v>14</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2069,7 +2068,7 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="24"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2090,7 +2089,7 @@
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="24"/>
+      <c r="N36" s="23"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2100,10 +2099,10 @@
       <c r="B37" s="4">
         <v>44487</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13"/>
       <c r="G37" s="7" t="s">
         <v>22</v>
       </c>
@@ -2111,9 +2110,9 @@
         <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>132</v>
-      </c>
-      <c r="N37" s="24"/>
+        <v>131</v>
+      </c>
+      <c r="N37" s="23"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2155,10 +2154,10 @@
         <v>14</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2168,27 +2167,27 @@
       <c r="B39" s="4">
         <v>44489</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="22" t="s">
-        <v>116</v>
+      <c r="I39" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L39" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="M39" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="N39" s="24"/>
+      <c r="L39" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="N39" s="23"/>
       <c r="O39" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2217,7 +2216,7 @@
         <v>37</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>14</v>
@@ -2226,10 +2225,10 @@
         <v>14</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2239,38 +2238,38 @@
       <c r="B41" s="4">
         <v>44491</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="M41" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="N41" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="O41" s="30" t="s">
-        <v>88</v>
+      <c r="L41" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2291,7 +2290,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="24"/>
+      <c r="N42" s="23"/>
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2312,7 +2311,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="24"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2333,7 +2332,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="24"/>
+      <c r="N44" s="23"/>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2354,7 +2353,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="24"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2375,7 +2374,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="24"/>
+      <c r="N46" s="23"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2396,7 +2395,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="24"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2417,7 +2416,7 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="24"/>
+      <c r="N48" s="23"/>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2438,7 +2437,7 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="24"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -2459,7 +2458,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="24"/>
+      <c r="N50" s="23"/>
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -2486,7 +2485,7 @@
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="24"/>
+      <c r="N51" s="23"/>
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2528,10 +2527,10 @@
         <v>14</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2544,13 +2543,13 @@
       <c r="C53" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="21" t="s">
         <v>27</v>
       </c>
       <c r="K53" s="12" t="s">
@@ -2559,12 +2558,12 @@
       <c r="L53" t="s">
         <v>16</v>
       </c>
-      <c r="M53" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="N53" s="24"/>
+      <c r="M53" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" s="23"/>
       <c r="O53" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -2581,28 +2580,28 @@
         <v>18</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -2619,13 +2618,13 @@
         <v>16</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="I55" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>35</v>
@@ -2634,10 +2633,10 @@
         <v>16</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -2658,7 +2657,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="24"/>
+      <c r="N56" s="23"/>
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -2679,7 +2678,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="24"/>
+      <c r="N57" s="23"/>
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -2705,22 +2704,22 @@
         <v>22</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L58" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M58" s="25" t="s">
+      <c r="L58" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M58" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N58" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O58" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -2762,10 +2761,10 @@
         <v>14</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -2778,19 +2777,19 @@
       <c r="C60" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G60" s="22" t="s">
+      <c r="D60" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="22" t="s">
+      <c r="H60" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="21" t="s">
         <v>28</v>
       </c>
       <c r="K60" s="12" t="s">
@@ -2799,12 +2798,12 @@
       <c r="L60" t="s">
         <v>16</v>
       </c>
-      <c r="M60" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="N60" s="24"/>
+      <c r="M60" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60" s="23"/>
       <c r="O60" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -2833,11 +2832,11 @@
       <c r="K61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L61" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="39"/>
-      <c r="N61" s="24"/>
+      <c r="L61" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="38"/>
+      <c r="N61" s="23"/>
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -2848,10 +2847,10 @@
         <v>44512</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>22</v>
@@ -2863,22 +2862,22 @@
         <v>50</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
       </c>
-      <c r="M62" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N62" s="24" t="s">
+      <c r="M62" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" s="23" t="s">
         <v>16</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -2899,7 +2898,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
-      <c r="N63" s="24"/>
+      <c r="N63" s="23"/>
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -2920,7 +2919,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
-      <c r="N64" s="24"/>
+      <c r="N64" s="23"/>
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -2930,10 +2929,10 @@
       <c r="B65" s="4">
         <v>44515</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="13"/>
       <c r="G65" s="7" t="s">
         <v>22</v>
       </c>
@@ -2941,9 +2940,9 @@
         <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
-      </c>
-      <c r="N65" s="24"/>
+        <v>131</v>
+      </c>
+      <c r="N65" s="23"/>
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -2985,10 +2984,10 @@
         <v>14</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -3004,28 +3003,28 @@
       <c r="E67" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>114</v>
+      <c r="G67" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="J67" s="3"/>
-      <c r="K67" s="22" t="s">
+      <c r="K67" s="21" t="s">
         <v>35</v>
       </c>
       <c r="L67" s="3"/>
-      <c r="M67" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N67" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="O67" s="22" t="s">
-        <v>120</v>
+      <c r="M67" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -3036,34 +3035,34 @@
         <v>44518</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -3073,36 +3072,36 @@
       <c r="B69" s="4">
         <v>44519</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H69" s="17" t="s">
+      <c r="H69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I69" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J69" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="L69" s="30" t="s">
+      <c r="I69" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L69" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="O69" s="17" t="s">
-        <v>88</v>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O69" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -3129,7 +3128,7 @@
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
-      <c r="N70" s="24"/>
+      <c r="N70" s="23"/>
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -3150,7 +3149,7 @@
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
-      <c r="N71" s="24"/>
+      <c r="N71" s="23"/>
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -3160,10 +3159,10 @@
       <c r="B72" s="4">
         <v>44522</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="14"/>
+      <c r="E72" s="13"/>
       <c r="G72" s="7" t="s">
         <v>22</v>
       </c>
@@ -3171,13 +3170,13 @@
         <v>22</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J72" s="3"/>
       <c r="L72" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="24"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -3219,10 +3218,10 @@
         <v>14</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -3239,13 +3238,13 @@
         <v>16</v>
       </c>
       <c r="G74" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="6" t="s">
@@ -3255,9 +3254,9 @@
       <c r="M74" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="24"/>
+      <c r="N74" s="23"/>
       <c r="O74" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -3267,23 +3266,23 @@
       <c r="B75" s="4">
         <v>44525</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I75" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" s="22" t="s">
         <v>53</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>14</v>
@@ -3292,10 +3291,10 @@
         <v>14</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -3305,38 +3304,38 @@
       <c r="B76" s="4">
         <v>44526</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G76" s="17" t="s">
+      <c r="G76" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I76" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J76" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L76" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="M76" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="N76" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="O76" s="17" t="s">
-        <v>120</v>
+      <c r="I76" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L76" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="M76" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O76" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -3357,7 +3356,7 @@
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
-      <c r="N77" s="24"/>
+      <c r="N77" s="23"/>
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -3378,7 +3377,7 @@
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
-      <c r="N78" s="24"/>
+      <c r="N78" s="23"/>
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -3389,38 +3388,38 @@
         <v>44529</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="G79" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="I79" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L79" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="L79" t="s">
-        <v>16</v>
-      </c>
-      <c r="M79" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="N79" s="40" t="s">
+      <c r="N79" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O79" s="39" t="s">
         <v>133</v>
-      </c>
-      <c r="O79" s="40" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -3462,10 +3461,10 @@
         <v>14</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -3475,13 +3474,13 @@
       <c r="B81" s="4">
         <v>44531</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G81" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="22" t="s">
+      <c r="H81" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I81" s="22" t="s">
+      <c r="I81" s="21" t="s">
         <v>54</v>
       </c>
       <c r="J81" t="s">
@@ -3493,12 +3492,12 @@
       <c r="L81" t="s">
         <v>16</v>
       </c>
-      <c r="M81" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="N81" s="24"/>
-      <c r="O81" s="22" t="s">
-        <v>109</v>
+      <c r="M81" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81" s="23"/>
+      <c r="O81" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -3517,26 +3516,26 @@
       <c r="G82" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I82" s="21" t="s">
+      <c r="I82" s="20" t="s">
         <v>34</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K82" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L82" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="N82" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S82" t="s">
         <v>16</v>
@@ -3565,22 +3564,22 @@
         <v>22</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L83" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M83" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N83" s="25" t="s">
-        <v>88</v>
+      <c r="L83" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M83" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -3601,11 +3600,11 @@
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
-      <c r="N84" s="24"/>
+      <c r="N84" s="23"/>
       <c r="O84" s="3"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
@@ -3625,11 +3624,11 @@
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
-      <c r="N85" s="24"/>
+      <c r="N85" s="23"/>
       <c r="O85" s="3"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -3638,10 +3637,10 @@
       <c r="B86" s="4">
         <v>44536</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="14"/>
+      <c r="E86" s="13"/>
       <c r="G86" s="7" t="s">
         <v>22</v>
       </c>
@@ -3649,13 +3648,13 @@
         <v>22</v>
       </c>
       <c r="I86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
@@ -3696,14 +3695,14 @@
         <v>14</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
+        <v>109</v>
+      </c>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -3712,14 +3711,14 @@
       <c r="B88" s="4">
         <v>44538</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G88" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H88" s="22" t="s">
+      <c r="H88" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I88" s="22" t="s">
-        <v>87</v>
+      <c r="I88" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>16</v>
@@ -3730,16 +3729,16 @@
       <c r="L88" t="s">
         <v>16</v>
       </c>
-      <c r="M88" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="N88" s="24"/>
-      <c r="O88" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
+      <c r="M88" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="N88" s="23"/>
+      <c r="O88" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -3748,23 +3747,23 @@
       <c r="B89" s="4">
         <v>44539</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L89" s="6" t="s">
         <v>14</v>
@@ -3773,14 +3772,14 @@
         <v>14</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
@@ -3789,45 +3788,45 @@
       <c r="B90" s="4">
         <v>44540</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H90" s="17" t="s">
+      <c r="H90" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I90" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J90" s="14" t="s">
+      <c r="I90" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J90" s="13" t="s">
         <v>146</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L90" s="30" t="s">
+      <c r="L90" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M90" s="30" t="s">
+      <c r="M90" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N90" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="O90" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
+      <c r="N90" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O90" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
@@ -3847,11 +3846,11 @@
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
-      <c r="N91" s="24"/>
+      <c r="N91" s="23"/>
       <c r="O91" s="3"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
@@ -3871,7 +3870,7 @@
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
-      <c r="N92" s="24"/>
+      <c r="N92" s="23"/>
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
@@ -3881,10 +3880,10 @@
       <c r="B93" s="4">
         <v>44543</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="14"/>
+      <c r="E93" s="13"/>
       <c r="G93" s="7" t="s">
         <v>22</v>
       </c>
@@ -3892,9 +3891,9 @@
         <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>132</v>
-      </c>
-      <c r="N93" s="24"/>
+        <v>131</v>
+      </c>
+      <c r="N93" s="23"/>
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -3936,10 +3935,10 @@
         <v>14</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -3967,10 +3966,10 @@
         <v>44546</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -3978,11 +3977,11 @@
       <c r="M96" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N96" s="24" t="s">
+      <c r="N96" s="23" t="s">
         <v>16</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -4005,22 +4004,22 @@
         <v>16</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J97" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="J97" s="24" t="s">
         <v>20</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
       </c>
-      <c r="M97" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N97" s="24" t="s">
+      <c r="M97" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" s="23" t="s">
         <v>16</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -4041,7 +4040,7 @@
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
-      <c r="N98" s="24"/>
+      <c r="N98" s="23"/>
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -4062,7 +4061,7 @@
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
-      <c r="N99" s="24"/>
+      <c r="N99" s="23"/>
       <c r="O99" s="3"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -4083,7 +4082,7 @@
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
-      <c r="N100" s="24"/>
+      <c r="N100" s="23"/>
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -4104,7 +4103,7 @@
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
-      <c r="N101" s="24"/>
+      <c r="N101" s="23"/>
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -4125,7 +4124,7 @@
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
-      <c r="N102" s="24"/>
+      <c r="N102" s="23"/>
       <c r="O102" s="3"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -4146,7 +4145,7 @@
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
-      <c r="N103" s="24"/>
+      <c r="N103" s="23"/>
       <c r="O103" s="3"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -4181,7 +4180,7 @@
         <v>16</v>
       </c>
       <c r="M104" s="10"/>
-      <c r="N104" s="24"/>
+      <c r="N104" s="23"/>
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -4202,7 +4201,7 @@
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
-      <c r="N105" s="24"/>
+      <c r="N105" s="23"/>
       <c r="O105" s="3"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -4223,7 +4222,7 @@
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
-      <c r="N106" s="24"/>
+      <c r="N106" s="23"/>
       <c r="O106" s="3"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -4244,7 +4243,7 @@
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
-      <c r="N107" s="24"/>
+      <c r="N107" s="23"/>
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -4265,7 +4264,7 @@
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
-      <c r="N108" s="24"/>
+      <c r="N108" s="23"/>
       <c r="O108" s="3"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -4286,7 +4285,7 @@
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
-      <c r="N109" s="24"/>
+      <c r="N109" s="23"/>
       <c r="O109" s="3"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -4307,7 +4306,7 @@
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
-      <c r="N110" s="24"/>
+      <c r="N110" s="23"/>
       <c r="O110" s="3"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -4328,7 +4327,7 @@
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
-      <c r="N111" s="24"/>
+      <c r="N111" s="23"/>
       <c r="O111" s="3"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -4349,7 +4348,7 @@
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
-      <c r="N112" s="24"/>
+      <c r="N112" s="23"/>
       <c r="O112" s="3"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -4370,124 +4369,118 @@
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
-      <c r="N113" s="24"/>
+      <c r="N113" s="23"/>
       <c r="O113" s="3"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="24" t="s">
+      <c r="A114" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="4">
         <v>44564</v>
       </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="24"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="23"/>
       <c r="O114" s="3"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="4">
         <v>44565</v>
       </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J115" s="3"/>
-      <c r="K115" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M115" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N115" s="24"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="23"/>
+      <c r="J115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L115" s="23"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="23"/>
       <c r="O115" s="3"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="24" t="s">
+      <c r="A116" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B116" s="4">
         <v>44566</v>
       </c>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24" t="s">
+      <c r="C116" s="23"/>
+      <c r="D116" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="3"/>
-      <c r="G116" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H116" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I116" s="28" t="s">
+      <c r="G116" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I116" s="27" t="s">
         <v>16</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L116" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="M116" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="N116" s="24"/>
+      <c r="L116" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M116" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N116" s="23"/>
       <c r="O116" s="3"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="24" t="s">
+      <c r="A117" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="4">
         <v>44567</v>
       </c>
-      <c r="C117" s="24"/>
+      <c r="C117" s="23"/>
       <c r="D117" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>16</v>
@@ -4497,34 +4490,34 @@
         <v>38</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N117" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="N117" s="23"/>
       <c r="O117" s="3"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="24" t="s">
+      <c r="A118" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B118" s="4">
         <v>44568</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="14" t="s">
-        <v>138</v>
+      <c r="C118" s="23"/>
+      <c r="D118" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>16</v>
@@ -4533,13 +4526,13 @@
       <c r="K118" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L118" s="14" t="s">
-        <v>137</v>
+      <c r="L118" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N118" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="N118" s="23"/>
       <c r="O118" s="3"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -4558,9 +4551,9 @@
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
-      <c r="L119" s="47"/>
-      <c r="M119" s="47"/>
-      <c r="N119" s="24"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="23"/>
       <c r="O119" s="3"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -4579,9 +4572,9 @@
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
-      <c r="L120" s="37"/>
-      <c r="M120" s="37"/>
-      <c r="N120" s="24"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="36"/>
+      <c r="N120" s="23"/>
       <c r="O120" s="3"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -4592,17 +4585,19 @@
         <v>44571</v>
       </c>
       <c r="C121" s="3"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="36"/>
-      <c r="M121" s="36"/>
-      <c r="N121" s="24"/>
+      <c r="D121" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="35"/>
+      <c r="M121" s="35"/>
+      <c r="N121" s="23"/>
       <c r="O121" s="3"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -4613,29 +4608,31 @@
         <v>44572</v>
       </c>
       <c r="C122" s="3"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="28" t="s">
+      <c r="D122" s="23"/>
+      <c r="E122" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I122" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J122" s="3"/>
-      <c r="K122" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M122" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N122" s="24"/>
+      <c r="K122" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M122" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N122" s="23"/>
       <c r="O122" s="3"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -4646,32 +4643,32 @@
         <v>44573</v>
       </c>
       <c r="C123" s="3"/>
-      <c r="D123" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>16</v>
+      <c r="D123" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="F123" s="3"/>
-      <c r="G123" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H123" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I123" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K123" s="27" t="s">
+      <c r="G123" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H123" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I123" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" s="26" t="s">
         <v>38</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M123" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="N123" s="24"/>
+      <c r="M123" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N123" s="23"/>
       <c r="O123" s="3"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -4681,32 +4678,32 @@
       <c r="B124" s="4">
         <v>44574</v>
       </c>
-      <c r="C124" s="48"/>
-      <c r="D124" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G124" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H124" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="I124" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K124" s="26" t="s">
+      <c r="C124" s="47"/>
+      <c r="D124" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H124" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I124" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L124" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M124" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N124" s="24"/>
+      <c r="L124" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M124" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N124" s="23"/>
       <c r="O124" s="3"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -4718,30 +4715,30 @@
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I125" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K125" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I125" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="L125" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M125" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="N125" s="24"/>
+      <c r="L125" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M125" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N125" s="23"/>
       <c r="O125" s="3"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -4762,7 +4759,7 @@
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
-      <c r="N126" s="24"/>
+      <c r="N126" s="23"/>
       <c r="O126" s="3"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -4783,7 +4780,7 @@
       <c r="K127" s="10"/>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
-      <c r="N127" s="24"/>
+      <c r="N127" s="23"/>
       <c r="O127" s="3"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -4806,9 +4803,9 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-      <c r="L128" s="36"/>
-      <c r="M128" s="41"/>
-      <c r="N128" s="42"/>
+      <c r="L128" s="35"/>
+      <c r="M128" s="40"/>
+      <c r="N128" s="41"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
@@ -4826,9 +4823,9 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
-      <c r="L129" s="36"/>
-      <c r="M129" s="36"/>
-      <c r="N129" s="24"/>
+      <c r="L129" s="35"/>
+      <c r="M129" s="35"/>
+      <c r="N129" s="23"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
@@ -4846,9 +4843,9 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
-      <c r="L130" s="36"/>
-      <c r="M130" s="36"/>
-      <c r="N130" s="24"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="23"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
@@ -4866,9 +4863,9 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
-      <c r="L131" s="36"/>
-      <c r="M131" s="36"/>
-      <c r="N131" s="24"/>
+      <c r="L131" s="35"/>
+      <c r="M131" s="35"/>
+      <c r="N131" s="23"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
@@ -4886,13 +4883,13 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="36"/>
-      <c r="M132" s="36"/>
-      <c r="N132" s="24"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="35"/>
+      <c r="N132" s="23"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B134" s="31" t="s">
-        <v>67</v>
+      <c r="B134" s="30" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4919,31 +4916,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4967,7 +4964,7 @@
       <c r="G2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="7" t="s">
         <v>48</v>
       </c>
@@ -4994,7 +4991,7 @@
       <c r="G3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
@@ -5006,24 +5003,24 @@
       <c r="B4" s="4">
         <v>44106</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>63</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5048,7 +5045,7 @@
       <c r="G5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
@@ -5073,9 +5070,9 @@
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="H6" s="24"/>
       <c r="I6" s="7" t="s">
         <v>56</v>
       </c>
@@ -5087,23 +5084,23 @@
       <c r="B7" s="4">
         <v>44127</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5129,35 +5126,35 @@
       <c r="G8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>44148</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -5179,7 +5176,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
@@ -5193,23 +5190,23 @@
       <c r="B11" s="4">
         <v>44162</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="G11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5220,23 +5217,23 @@
       <c r="B12" s="4">
         <v>44169</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
+      <c r="G12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5260,7 +5257,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
@@ -5295,7 +5292,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4">
@@ -5322,7 +5319,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -5332,20 +5329,20 @@
         <v>43902</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>14</v>
@@ -5359,20 +5356,20 @@
         <v>43909</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>14</v>
@@ -5386,20 +5383,20 @@
         <v>43916</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>14</v>
@@ -5413,47 +5410,47 @@
         <v>43923</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>43930</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>14</v>
@@ -5467,20 +5464,20 @@
         <v>43937</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>14</v>
@@ -5494,20 +5491,20 @@
         <v>43944</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>14</v>
@@ -5521,20 +5518,20 @@
         <v>43958</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>14</v>
@@ -5548,47 +5545,47 @@
         <v>43972</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="4">
         <v>43979</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>14</v>
@@ -5602,20 +5599,20 @@
         <v>43986</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>14</v>
@@ -5629,20 +5626,20 @@
         <v>43993</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>14</v>
@@ -5656,20 +5653,20 @@
         <v>44000</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>14</v>
